--- a/data/Cam_SpecialEventLobbyist.xlsx
+++ b/data/Cam_SpecialEventLobbyist.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Cam_SpecialEventLobbyist"/>
   </sheets>
   <definedNames>
-    <definedName name="Cam_SpecialEventLobbyist">'Cam_SpecialEventLobbyist'!$A$1:$I$2277</definedName>
+    <definedName name="Cam_SpecialEventLobbyist">'Cam_SpecialEventLobbyist'!$A$1:$I$2303</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2277"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -79721,7 +79721,7 @@
         <v>43376.5930929745</v>
       </c>
       <c r="I2259" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="2260">
@@ -79791,7 +79791,7 @@
         <v>43376.5950158565</v>
       </c>
       <c r="I2261" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="2262">
@@ -79826,7 +79826,7 @@
         <v>43376.5962581366</v>
       </c>
       <c r="I2262" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="2263">
@@ -79861,7 +79861,7 @@
         <v>43376.5975180556</v>
       </c>
       <c r="I2263" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="2264">
@@ -79896,7 +79896,7 @@
         <v>43376.598674919</v>
       </c>
       <c r="I2264" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="2265">
@@ -80351,6 +80351,938 @@
         <v>43376.9714576042</v>
       </c>
       <c r="I2277" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2278">
+      <c r="A2278" s="0">
+        <v>2478</v>
+      </c>
+      <c r="B2278" s="0">
+        <v>8357</v>
+      </c>
+      <c r="C2278" s="0" t="inlineStr">
+        <is>
+          <t>Committee Dinner</t>
+        </is>
+      </c>
+      <c r="D2278" s="0" t="inlineStr">
+        <is>
+          <t>Bull Ring</t>
+        </is>
+      </c>
+      <c r="E2278" s="1">
+        <v>43451</v>
+      </c>
+      <c r="F2278" s="2">
+        <v>235.49</v>
+      </c>
+      <c r="G2278" s="0" t="inlineStr">
+        <is>
+          <t>Revenue Stabilization committee and staff</t>
+        </is>
+      </c>
+      <c r="H2278" s="1">
+        <v>43452.5665096412</v>
+      </c>
+      <c r="I2278" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2279">
+      <c r="A2279" s="0">
+        <v>2479</v>
+      </c>
+      <c r="B2279" s="0">
+        <v>8435</v>
+      </c>
+      <c r="C2279" s="0" t="inlineStr">
+        <is>
+          <t>Committee dinner</t>
+        </is>
+      </c>
+      <c r="D2279" s="0" t="inlineStr">
+        <is>
+          <t>Pepper's Grill and Bar</t>
+        </is>
+      </c>
+      <c r="E2279" s="1">
+        <v>43375</v>
+      </c>
+      <c r="F2279" s="2">
+        <v>734.23</v>
+      </c>
+      <c r="G2279" s="0" t="inlineStr">
+        <is>
+          <t>Water &amp; Natural Resources interim committee and staff</t>
+        </is>
+      </c>
+      <c r="H2279" s="1">
+        <v>43455.7501158565</v>
+      </c>
+      <c r="I2279" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2280">
+      <c r="A2280" s="0">
+        <v>2480</v>
+      </c>
+      <c r="B2280" s="0">
+        <v>8462</v>
+      </c>
+      <c r="C2280" s="0" t="inlineStr">
+        <is>
+          <t>Dinner</t>
+        </is>
+      </c>
+      <c r="D2280" s="0" t="inlineStr">
+        <is>
+          <t>Salud de Mesilla</t>
+        </is>
+      </c>
+      <c r="E2280" s="1">
+        <v>43384</v>
+      </c>
+      <c r="F2280" s="2">
+        <v>186.43</v>
+      </c>
+      <c r="G2280" s="0" t="inlineStr">
+        <is>
+          <t>Members, staff and guests of the Economic Development Committee.</t>
+        </is>
+      </c>
+      <c r="H2280" s="1">
+        <v>43468.4978069444</v>
+      </c>
+      <c r="I2280" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2281">
+      <c r="A2281" s="0">
+        <v>2481</v>
+      </c>
+      <c r="B2281" s="0">
+        <v>8462</v>
+      </c>
+      <c r="C2281" s="0" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="D2281" s="0" t="inlineStr">
+        <is>
+          <t>State Capitol</t>
+        </is>
+      </c>
+      <c r="E2281" s="1">
+        <v>43451</v>
+      </c>
+      <c r="F2281" s="2">
+        <v>369.98</v>
+      </c>
+      <c r="G2281" s="0" t="inlineStr">
+        <is>
+          <t>RSTP members, staff and guests.</t>
+        </is>
+      </c>
+      <c r="H2281" s="1">
+        <v>43468.4986045139</v>
+      </c>
+      <c r="I2281" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2282">
+      <c r="A2282" s="0">
+        <v>2482</v>
+      </c>
+      <c r="B2282" s="0">
+        <v>8491</v>
+      </c>
+      <c r="C2282" s="0" t="inlineStr">
+        <is>
+          <t>AED Legislative Luncheon</t>
+        </is>
+      </c>
+      <c r="D2282" s="0" t="inlineStr">
+        <is>
+          <t>Artichoke Cafe</t>
+        </is>
+      </c>
+      <c r="E2282" s="1">
+        <v>43382</v>
+      </c>
+      <c r="F2282" s="2">
+        <v>1023</v>
+      </c>
+      <c r="G2282" s="0" t="inlineStr">
+        <is>
+          <t>Selected legislators were invited as well as candidates for legislative seats and members of the AED Board of Directors. The legislators who attended were:_x000d_
+Daymon Ely_x000d_
+Jimmie Hall_x000d_
+Daniel Ivey-Soto_x000d_
+Antonio Maestas_x000d_
+Bill Payne_x000d_
+Gregg Schmedes_x000d_
+Mimi Stewart_x000d_
+James White_x000d_
+The candidates for legislative seats who attended were:_x000d_
+Robert Godshall_x000d_
+John Jones_x000d_
+Dayan Hochman-Vigil</t>
+        </is>
+      </c>
+      <c r="H2282" s="1">
+        <v>43473</v>
+      </c>
+      <c r="I2282" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2283">
+      <c r="A2283" s="0">
+        <v>2483</v>
+      </c>
+      <c r="B2283" s="0">
+        <v>8515</v>
+      </c>
+      <c r="C2283" s="0" t="inlineStr">
+        <is>
+          <t>Committee Lunch</t>
+        </is>
+      </c>
+      <c r="D2283" s="0" t="inlineStr">
+        <is>
+          <t>Capitol Building</t>
+        </is>
+      </c>
+      <c r="E2283" s="1">
+        <v>43405</v>
+      </c>
+      <c r="F2283" s="2">
+        <v>258.98</v>
+      </c>
+      <c r="G2283" s="0" t="inlineStr">
+        <is>
+          <t>Economic and Rural Development Committee and Staff</t>
+        </is>
+      </c>
+      <c r="H2283" s="1">
+        <v>43474.514821794</v>
+      </c>
+      <c r="I2283" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2284">
+      <c r="A2284" s="0">
+        <v>2484</v>
+      </c>
+      <c r="B2284" s="0">
+        <v>8515</v>
+      </c>
+      <c r="C2284" s="0" t="inlineStr">
+        <is>
+          <t>Committee Lunch</t>
+        </is>
+      </c>
+      <c r="D2284" s="0" t="inlineStr">
+        <is>
+          <t>Capitol Building</t>
+        </is>
+      </c>
+      <c r="E2284" s="1">
+        <v>43433</v>
+      </c>
+      <c r="F2284" s="2">
+        <v>233.98</v>
+      </c>
+      <c r="G2284" s="0" t="inlineStr">
+        <is>
+          <t>Water and Natural Resources Committee and Staff</t>
+        </is>
+      </c>
+      <c r="H2284" s="1">
+        <v>43474.5152412037</v>
+      </c>
+      <c r="I2284" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2285">
+      <c r="A2285" s="0">
+        <v>2485</v>
+      </c>
+      <c r="B2285" s="0">
+        <v>8550</v>
+      </c>
+      <c r="C2285" s="0" t="inlineStr">
+        <is>
+          <t>RSTP Dinner</t>
+        </is>
+      </c>
+      <c r="D2285" s="0" t="inlineStr">
+        <is>
+          <t>Bull Ring, Santa Fe</t>
+        </is>
+      </c>
+      <c r="E2285" s="1">
+        <v>43451</v>
+      </c>
+      <c r="F2285" s="2">
+        <v>235.49</v>
+      </c>
+      <c r="G2285" s="0" t="inlineStr">
+        <is>
+          <t>RSTP members and guests and staff</t>
+        </is>
+      </c>
+      <c r="H2285" s="1">
+        <v>43475.8918245718</v>
+      </c>
+      <c r="I2285" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2286">
+      <c r="A2286" s="0">
+        <v>2486</v>
+      </c>
+      <c r="B2286" s="0">
+        <v>8558</v>
+      </c>
+      <c r="C2286" s="0" t="inlineStr">
+        <is>
+          <t>Rural Economic Development Committee</t>
+        </is>
+      </c>
+      <c r="D2286" s="0" t="inlineStr">
+        <is>
+          <t>Rio Chama</t>
+        </is>
+      </c>
+      <c r="E2286" s="1">
+        <v>43404</v>
+      </c>
+      <c r="F2286" s="2">
+        <v>221</v>
+      </c>
+      <c r="G2286" s="0" t="inlineStr">
+        <is>
+          <t>RuralEconomic Development Committee members and staff</t>
+        </is>
+      </c>
+      <c r="H2286" s="1">
+        <v>43476</v>
+      </c>
+      <c r="I2286" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2287">
+      <c r="A2287" s="0">
+        <v>2488</v>
+      </c>
+      <c r="B2287" s="0">
+        <v>8589</v>
+      </c>
+      <c r="C2287" s="0" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="D2287" s="0" t="inlineStr">
+        <is>
+          <t>State Capitol - Room #307</t>
+        </is>
+      </c>
+      <c r="E2287" s="1">
+        <v>43445</v>
+      </c>
+      <c r="F2287" s="2">
+        <v>341.58</v>
+      </c>
+      <c r="G2287" s="0" t="inlineStr">
+        <is>
+          <t>Legislative Finance Committee </t>
+        </is>
+      </c>
+      <c r="H2287" s="1">
+        <v>43476</v>
+      </c>
+      <c r="I2287" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2288">
+      <c r="A2288" s="0">
+        <v>2489</v>
+      </c>
+      <c r="B2288" s="0">
+        <v>8589</v>
+      </c>
+      <c r="C2288" s="0" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="D2288" s="0" t="inlineStr">
+        <is>
+          <t>State Capitol - Room #322</t>
+        </is>
+      </c>
+      <c r="E2288" s="1">
+        <v>43451</v>
+      </c>
+      <c r="F2288" s="2">
+        <v>374.11</v>
+      </c>
+      <c r="G2288" s="0" t="inlineStr">
+        <is>
+          <t>Revenue Stabilization Committee </t>
+        </is>
+      </c>
+      <c r="H2288" s="1">
+        <v>43476.591280706</v>
+      </c>
+      <c r="I2288" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2289">
+      <c r="A2289" s="0">
+        <v>2490</v>
+      </c>
+      <c r="B2289" s="0">
+        <v>8609</v>
+      </c>
+      <c r="C2289" s="0" t="inlineStr">
+        <is>
+          <t>Governor's Ball Committee</t>
+        </is>
+      </c>
+      <c r="D2289" s="0" t="inlineStr">
+        <is>
+          <t>Santa Fe, NM</t>
+        </is>
+      </c>
+      <c r="E2289" s="1">
+        <v>43464</v>
+      </c>
+      <c r="F2289" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G2289" s="0" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="H2289" s="1">
+        <v>43477.5182101042</v>
+      </c>
+      <c r="I2289" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2290">
+      <c r="A2290" s="0">
+        <v>2491</v>
+      </c>
+      <c r="B2290" s="0">
+        <v>8656</v>
+      </c>
+      <c r="C2290" s="0" t="inlineStr">
+        <is>
+          <t>Legislative Committee Meeting</t>
+        </is>
+      </c>
+      <c r="D2290" s="0" t="inlineStr">
+        <is>
+          <t>UNM Science and Technology Park Rotunda</t>
+        </is>
+      </c>
+      <c r="E2290" s="1">
+        <v>43367</v>
+      </c>
+      <c r="F2290" s="2">
+        <v>1141.59</v>
+      </c>
+      <c r="G2290" s="0" t="inlineStr">
+        <is>
+          <t>Courts, Correction and Justice Committee, general public 9/24/2018 and 9/25/2018</t>
+        </is>
+      </c>
+      <c r="H2290" s="1">
+        <v>43479.5166252662</v>
+      </c>
+      <c r="I2290" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2291">
+      <c r="A2291" s="0">
+        <v>2492</v>
+      </c>
+      <c r="B2291" s="0">
+        <v>8656</v>
+      </c>
+      <c r="C2291" s="0" t="inlineStr">
+        <is>
+          <t>Legislative Interim Committee Meeting</t>
+        </is>
+      </c>
+      <c r="D2291" s="0" t="inlineStr">
+        <is>
+          <t>UNM Science and Technology Park Rotunda</t>
+        </is>
+      </c>
+      <c r="E2291" s="1">
+        <v>43391</v>
+      </c>
+      <c r="F2291" s="2">
+        <v>1467.48</v>
+      </c>
+      <c r="G2291" s="0" t="inlineStr">
+        <is>
+          <t>Courts, Corrections and Justice Interim Committee, general public_x000d_
+</t>
+        </is>
+      </c>
+      <c r="H2291" s="1">
+        <v>43479.5181403935</v>
+      </c>
+      <c r="I2291" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2292">
+      <c r="A2292" s="0">
+        <v>2493</v>
+      </c>
+      <c r="B2292" s="0">
+        <v>8656</v>
+      </c>
+      <c r="C2292" s="0" t="inlineStr">
+        <is>
+          <t>Interim Committee- Science Technology &amp; Telecommun</t>
+        </is>
+      </c>
+      <c r="D2292" s="0" t="inlineStr">
+        <is>
+          <t>Lobo Rain Forest</t>
+        </is>
+      </c>
+      <c r="E2292" s="1">
+        <v>43391</v>
+      </c>
+      <c r="F2292" s="2">
+        <v>298</v>
+      </c>
+      <c r="G2292" s="0" t="inlineStr">
+        <is>
+          <t>interim committee, general public</t>
+        </is>
+      </c>
+      <c r="H2292" s="1">
+        <v>43479.5188565972</v>
+      </c>
+      <c r="I2292" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2293">
+      <c r="A2293" s="0">
+        <v>2494</v>
+      </c>
+      <c r="B2293" s="0">
+        <v>8357</v>
+      </c>
+      <c r="C2293" s="0" t="inlineStr">
+        <is>
+          <t>House Freshmen Reception</t>
+        </is>
+      </c>
+      <c r="D2293" s="0" t="inlineStr">
+        <is>
+          <t>Rio Chama</t>
+        </is>
+      </c>
+      <c r="E2293" s="1">
+        <v>43440</v>
+      </c>
+      <c r="F2293" s="2">
+        <v>205.19</v>
+      </c>
+      <c r="G2293" s="0" t="inlineStr">
+        <is>
+          <t>Freshmen democrat legislators</t>
+        </is>
+      </c>
+      <c r="H2293" s="1">
+        <v>43479.6928092245</v>
+      </c>
+      <c r="I2293" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2294">
+      <c r="A2294" s="0">
+        <v>2495</v>
+      </c>
+      <c r="B2294" s="0">
+        <v>8357</v>
+      </c>
+      <c r="C2294" s="0" t="inlineStr">
+        <is>
+          <t>Committee Dinner</t>
+        </is>
+      </c>
+      <c r="D2294" s="0" t="inlineStr">
+        <is>
+          <t>Bull Ring</t>
+        </is>
+      </c>
+      <c r="E2294" s="1">
+        <v>43433</v>
+      </c>
+      <c r="F2294" s="2">
+        <v>170</v>
+      </c>
+      <c r="G2294" s="0" t="inlineStr">
+        <is>
+          <t>Water and Natural Resources committee</t>
+        </is>
+      </c>
+      <c r="H2294" s="1">
+        <v>43479</v>
+      </c>
+      <c r="I2294" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2295">
+      <c r="A2295" s="0">
+        <v>2496</v>
+      </c>
+      <c r="B2295" s="0">
+        <v>8357</v>
+      </c>
+      <c r="C2295" s="0" t="inlineStr">
+        <is>
+          <t>Committee Dinner</t>
+        </is>
+      </c>
+      <c r="D2295" s="0" t="inlineStr">
+        <is>
+          <t>Bull Ring</t>
+        </is>
+      </c>
+      <c r="E2295" s="1">
+        <v>43423</v>
+      </c>
+      <c r="F2295" s="2">
+        <v>75.53</v>
+      </c>
+      <c r="G2295" s="0" t="inlineStr">
+        <is>
+          <t>Military and Veterans affairs committee</t>
+        </is>
+      </c>
+      <c r="H2295" s="1">
+        <v>43479.6963180556</v>
+      </c>
+      <c r="I2295" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2296">
+      <c r="A2296" s="0">
+        <v>2497</v>
+      </c>
+      <c r="B2296" s="0">
+        <v>8395</v>
+      </c>
+      <c r="C2296" s="0" t="inlineStr">
+        <is>
+          <t>Legislative Dinner</t>
+        </is>
+      </c>
+      <c r="D2296" s="0" t="inlineStr">
+        <is>
+          <t>Rio Rancho</t>
+        </is>
+      </c>
+      <c r="E2296" s="1">
+        <v>43438</v>
+      </c>
+      <c r="F2296" s="2">
+        <v>229.23</v>
+      </c>
+      <c r="G2296" s="0" t="inlineStr">
+        <is>
+          <t>Rio Rancho Public School Legislative Delegation _x000d_
+Rep. Jason Harper_x000d_
+Rep. Lewis_x000d_
+Rep. Powdrell Culbert_x000d_
+Rep. Ely_x000d_
+Sen. Gould_x000d_
+Sen. Brandt_x000d_
+Sen. Sapien_x000d_
+</t>
+        </is>
+      </c>
+      <c r="H2296" s="1">
+        <v>43480.4299287384</v>
+      </c>
+      <c r="I2296" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2297">
+      <c r="A2297" s="0">
+        <v>2498</v>
+      </c>
+      <c r="B2297" s="0">
+        <v>8730</v>
+      </c>
+      <c r="C2297" s="0" t="inlineStr">
+        <is>
+          <t>In Kind Event</t>
+        </is>
+      </c>
+      <c r="D2297" s="0" t="inlineStr">
+        <is>
+          <t>Kelly Brew Pub</t>
+        </is>
+      </c>
+      <c r="E2297" s="1">
+        <v>43383</v>
+      </c>
+      <c r="F2297" s="2">
+        <v>144.14</v>
+      </c>
+      <c r="G2297" s="0" t="inlineStr">
+        <is>
+          <t>Brian Egolf Fundraiser_x000d_
+</t>
+        </is>
+      </c>
+      <c r="H2297" s="1">
+        <v>43480.443031331</v>
+      </c>
+      <c r="I2297" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2298">
+      <c r="A2298" s="0">
+        <v>2499</v>
+      </c>
+      <c r="B2298" s="0">
+        <v>8748</v>
+      </c>
+      <c r="C2298" s="0" t="inlineStr">
+        <is>
+          <t>Military and Veterans Affairs Interim Committee</t>
+        </is>
+      </c>
+      <c r="D2298" s="0" t="inlineStr">
+        <is>
+          <t>Bull Ring</t>
+        </is>
+      </c>
+      <c r="E2298" s="1">
+        <v>43425</v>
+      </c>
+      <c r="F2298" s="2">
+        <v>75.53</v>
+      </c>
+      <c r="G2298" s="0" t="inlineStr">
+        <is>
+          <t>Military and Veterans Affairs Interim Committee members and staff</t>
+        </is>
+      </c>
+      <c r="H2298" s="1">
+        <v>43480.5546202199</v>
+      </c>
+      <c r="I2298" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2299">
+      <c r="A2299" s="0">
+        <v>2500</v>
+      </c>
+      <c r="B2299" s="0">
+        <v>8755</v>
+      </c>
+      <c r="C2299" s="0" t="inlineStr">
+        <is>
+          <t>Dinner</t>
+        </is>
+      </c>
+      <c r="D2299" s="0" t="inlineStr">
+        <is>
+          <t>The Bull Ring</t>
+        </is>
+      </c>
+      <c r="E2299" s="1">
+        <v>43451</v>
+      </c>
+      <c r="F2299" s="2">
+        <v>235.49</v>
+      </c>
+      <c r="G2299" s="0" t="inlineStr">
+        <is>
+          <t>Members and Staff of Revenue Stabilization &amp; Tax Policy Committee</t>
+        </is>
+      </c>
+      <c r="H2299" s="1">
+        <v>43480.6444996875</v>
+      </c>
+      <c r="I2299" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2300">
+      <c r="A2300" s="0">
+        <v>2501</v>
+      </c>
+      <c r="B2300" s="0">
+        <v>8682</v>
+      </c>
+      <c r="C2300" s="0" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="D2300" s="0" t="inlineStr">
+        <is>
+          <t>La Chama </t>
+        </is>
+      </c>
+      <c r="E2300" s="1">
+        <v>43398</v>
+      </c>
+      <c r="F2300" s="2">
+        <v>147.98</v>
+      </c>
+      <c r="G2300" s="0" t="inlineStr">
+        <is>
+          <t>Joint Finance Committee</t>
+        </is>
+      </c>
+      <c r="H2300" s="1">
+        <v>43480.6787833333</v>
+      </c>
+      <c r="I2300" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2301">
+      <c r="A2301" s="0">
+        <v>2502</v>
+      </c>
+      <c r="B2301" s="0">
+        <v>8399</v>
+      </c>
+      <c r="C2301" s="0" t="inlineStr">
+        <is>
+          <t>Revenue Stabilization Tax Policy Committee Dinner</t>
+        </is>
+      </c>
+      <c r="D2301" s="0" t="inlineStr">
+        <is>
+          <t>The Bull Ring</t>
+        </is>
+      </c>
+      <c r="E2301" s="1">
+        <v>43424</v>
+      </c>
+      <c r="F2301" s="2">
+        <v>75.53</v>
+      </c>
+      <c r="G2301" s="0" t="inlineStr">
+        <is>
+          <t>Committee member and Staff</t>
+        </is>
+      </c>
+      <c r="H2301" s="1">
+        <v>43480</v>
+      </c>
+      <c r="I2301" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2302">
+      <c r="A2302" s="0">
+        <v>2503</v>
+      </c>
+      <c r="B2302" s="0">
+        <v>8399</v>
+      </c>
+      <c r="C2302" s="0" t="inlineStr">
+        <is>
+          <t>Water and Natural Resources Dinner</t>
+        </is>
+      </c>
+      <c r="D2302" s="0" t="inlineStr">
+        <is>
+          <t>The Bull Ring</t>
+        </is>
+      </c>
+      <c r="E2302" s="1">
+        <v>43434</v>
+      </c>
+      <c r="F2302" s="2">
+        <v>250</v>
+      </c>
+      <c r="G2302" s="0" t="inlineStr">
+        <is>
+          <t>Members of the WNRC and Staff</t>
+        </is>
+      </c>
+      <c r="H2302" s="1">
+        <v>43480.8840506944</v>
+      </c>
+      <c r="I2302" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2303">
+      <c r="A2303" s="0">
+        <v>2504</v>
+      </c>
+      <c r="B2303" s="0">
+        <v>8783</v>
+      </c>
+      <c r="C2303" s="0" t="inlineStr">
+        <is>
+          <t>Michael Padilla 7th Annual Matanza</t>
+        </is>
+      </c>
+      <c r="D2303" s="0" t="inlineStr">
+        <is>
+          <t>7421 Isleta SW, Albuquerque</t>
+        </is>
+      </c>
+      <c r="E2303" s="1">
+        <v>43386</v>
+      </c>
+      <c r="F2303" s="2">
+        <v>250</v>
+      </c>
+      <c r="G2303" s="0" t="inlineStr">
+        <is>
+          <t>Everyone</t>
+        </is>
+      </c>
+      <c r="H2303" s="1">
+        <v>43480.9656375</v>
+      </c>
+      <c r="I2303" s="0">
         <v>2</v>
       </c>
     </row>
